--- a/data/Bloomberg_template/GHG_emissions_x_0.xlsx
+++ b/data/Bloomberg_template/GHG_emissions_x_0.xlsx
@@ -14,27 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
-    <t>XLDLIZ CH Equity 2018</t>
+    <t>XCOOQ US Equity 2018</t>
   </si>
   <si>
-    <t>XLDLIZ CH Equity 2019</t>
+    <t>XCOOQ US Equity 2019</t>
   </si>
   <si>
-    <t>XLDLIZ CH Equity 2020</t>
+    <t>XCOOQ US Equity 2020</t>
   </si>
   <si>
-    <t>XLDLIZ CH Equity 2021</t>
+    <t>XCOOQ US Equity 2021</t>
   </si>
   <si>
-    <t>XLDLIZ CH Equity 2022</t>
+    <t>XCOOQ US Equity 2022</t>
   </si>
   <si>
-    <t>XLDLIZ CH Equity 2023</t>
+    <t>XCOOQ US Equity 2023</t>
   </si>
   <si>
-    <t>XLDLIZ CH Equity 2024</t>
+    <t>XCOOQ US Equity 2024</t>
+  </si>
+  <si>
+    <t>XOM US Equity 2018</t>
+  </si>
+  <si>
+    <t>XOM US Equity 2019</t>
+  </si>
+  <si>
+    <t>XOM US Equity 2020</t>
+  </si>
+  <si>
+    <t>XOM US Equity 2021</t>
+  </si>
+  <si>
+    <t>XOM US Equity 2022</t>
+  </si>
+  <si>
+    <t>XOM US Equity 2023</t>
+  </si>
+  <si>
+    <t>XOM US Equity 2024</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2018</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2019</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2020</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2021</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2022</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2023</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2024</t>
   </si>
   <si>
     <t>XTGZ CH Equity 2018</t>
@@ -58,25 +100,25 @@
     <t>XTGZ CH Equity 2024</t>
   </si>
   <si>
-    <t>XEL US Equity 2018</t>
+    <t>XLDLIZ CH Equity 2018</t>
   </si>
   <si>
-    <t>XEL US Equity 2019</t>
+    <t>XLDLIZ CH Equity 2019</t>
   </si>
   <si>
-    <t>XEL US Equity 2020</t>
+    <t>XLDLIZ CH Equity 2020</t>
   </si>
   <si>
-    <t>XEL US Equity 2021</t>
+    <t>XLDLIZ CH Equity 2021</t>
   </si>
   <si>
-    <t>XEL US Equity 2022</t>
+    <t>XLDLIZ CH Equity 2022</t>
   </si>
   <si>
-    <t>XEL US Equity 2023</t>
+    <t>XLDLIZ CH Equity 2023</t>
   </si>
   <si>
-    <t>XEL US Equity 2024</t>
+    <t>XLDLIZ CH Equity 2024</t>
   </si>
   <si>
     <t>XBPPGZ CH Equity 2018</t>
@@ -100,67 +142,25 @@
     <t>XBPPGZ CH Equity 2024</t>
   </si>
   <si>
-    <t>XXYCPZ CH Equity 2018</t>
+    <t>XEL US Equity 2018</t>
   </si>
   <si>
-    <t>XXYCPZ CH Equity 2019</t>
+    <t>XEL US Equity 2019</t>
   </si>
   <si>
-    <t>XXYCPZ CH Equity 2020</t>
+    <t>XEL US Equity 2020</t>
   </si>
   <si>
-    <t>XXYCPZ CH Equity 2021</t>
+    <t>XEL US Equity 2021</t>
   </si>
   <si>
-    <t>XXYCPZ CH Equity 2022</t>
+    <t>XEL US Equity 2022</t>
   </si>
   <si>
-    <t>XXYCPZ CH Equity 2023</t>
+    <t>XEL US Equity 2023</t>
   </si>
   <si>
-    <t>XXYCPZ CH Equity 2024</t>
-  </si>
-  <si>
-    <t>XOM US Equity 2018</t>
-  </si>
-  <si>
-    <t>XOM US Equity 2019</t>
-  </si>
-  <si>
-    <t>XOM US Equity 2020</t>
-  </si>
-  <si>
-    <t>XOM US Equity 2021</t>
-  </si>
-  <si>
-    <t>XOM US Equity 2022</t>
-  </si>
-  <si>
-    <t>XOM US Equity 2023</t>
-  </si>
-  <si>
-    <t>XOM US Equity 2024</t>
-  </si>
-  <si>
-    <t>XCOOQ US Equity 2018</t>
-  </si>
-  <si>
-    <t>XCOOQ US Equity 2019</t>
-  </si>
-  <si>
-    <t>XCOOQ US Equity 2020</t>
-  </si>
-  <si>
-    <t>XCOOQ US Equity 2021</t>
-  </si>
-  <si>
-    <t>XCOOQ US Equity 2022</t>
-  </si>
-  <si>
-    <t>XCOOQ US Equity 2023</t>
-  </si>
-  <si>
-    <t>XCOOQ US Equity 2024</t>
+    <t>XEL US Equity 2024</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC77"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,115 +503,115 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C1">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D1">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T1">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U1">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V1">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W1">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X1">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y1">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z1">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA1">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB1">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC1">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -620,115 +620,115 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -737,115 +737,115 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -854,115 +854,115 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -971,115 +971,115 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -1088,115 +1088,115 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -1205,115 +1205,115 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -1322,115 +1322,115 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -1439,115 +1439,115 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -1556,115 +1556,115 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C10">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U10">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -1673,115 +1673,115 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C11">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U11">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -1790,115 +1790,115 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C12">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -1907,115 +1907,115 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U13">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X13">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -2024,115 +2024,115 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -2141,115 +2141,115 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R15">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U15">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V15">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W15">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X15">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -2258,115 +2258,115 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R16">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S16">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T16">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U16">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V16">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W16">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X16">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA16">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB16">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC16">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -2375,115 +2375,115 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R17">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S17">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T17">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U17">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W17">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X17">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -2492,115 +2492,115 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C18">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D18">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R18">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S18">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U18">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V18">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W18">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X18">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA18">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB18">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -2609,115 +2609,115 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C19">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H19">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O19">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R19">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S19">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T19">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U19">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V19">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X19">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y19">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA19">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB19">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC19">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -2726,115 +2726,115 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C20">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D20">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O20">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P20">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R20">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S20">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T20">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U20">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V20">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W20">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X20">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y20">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z20">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -2843,115 +2843,115 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I21">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K21">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M21">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N21">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O21">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P21">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R21">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S21">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T21">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U21">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V21">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W21">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X21">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y21">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z21">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA21">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB21">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC21">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -2960,115 +2960,115 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D22">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T22">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U22">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V22">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W22">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X22">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y22">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA22">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB22">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC22">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -3077,115 +3077,115 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U23">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V23">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X23">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y23">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA23">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB23">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -3194,115 +3194,115 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C24">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T24">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U24">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V24">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W24">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X24">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y24">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z24">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA24">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB24">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -3311,115 +3311,115 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C25">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D25">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T25">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U25">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V25">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W25">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X25">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z25">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA25">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB25">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -3428,115 +3428,115 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C26">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T26">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U26">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V26">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W26">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X26">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB26">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC26">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -3545,115 +3545,115 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C27">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D27">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T27">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X27">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y27">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA27">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB27">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -3662,115 +3662,115 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C28">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D28">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T28">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U28">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V28">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W28">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X28">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z28">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA28">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB28">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -3779,115 +3779,115 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T29">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U29">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V29">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W29">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X29">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y29">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z29">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA29">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -3896,115 +3896,115 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C30">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T30">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U30">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V30">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W30">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X30">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y30">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z30">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA30">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB30">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC30">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -4013,115 +4013,115 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C31">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D31">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T31">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U31">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V31">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W31">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X31">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z31">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA31">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB31">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC31">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -4130,115 +4130,115 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C32">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D32">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T32">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U32">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V32">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W32">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X32">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y32">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z32">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA32">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB32">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC32">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -4247,115 +4247,115 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C33">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T33">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U33">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V33">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W33">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X33">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y33">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z33">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA33">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB33">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -4364,115 +4364,115 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C34">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T34">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U34">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V34">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W34">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X34">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y34">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z34">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA34">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB34">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC34">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -4481,121 +4481,121 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C35">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T35">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U35">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V35">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W35">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X35">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y35">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z35">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA35">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB35">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC35">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
@@ -5414,4096 +5414,820 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C43">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D43">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T43">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U43">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V43">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W43">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X43">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA43">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB43">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC43">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C44">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D44">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T44">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U44">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V44">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W44">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA44">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C45">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T45">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U45">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V45">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W45">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X45">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA45">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB45">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC45">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C46">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D46">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T46">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U46">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V46">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W46">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X46">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y46">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA46">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB46">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC46">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C47">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D47">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T47">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U47">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V47">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W47">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X47">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y47">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA47">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB47">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC47">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C48">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D48">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T48">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U48">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V48">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W48">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X48">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA48">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB48">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC48">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C49">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D49">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T49">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U49">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V49">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W49">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X49">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z49">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA49">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB49">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC49">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <f>BDP("XEL US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2018")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29">
-      <c r="A51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <f>BDP("XEL US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2019")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29">
-      <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <f>BDP("XEL US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2020")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
-      <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <f>BDP("XEL US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2021")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <f>BDP("XEL US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2022")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <f>BDP("XEL US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2023")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29">
-      <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <f>BDP("XEL US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AC56">
         <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2024")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
-      <c r="A58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29">
-      <c r="A59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29">
-      <c r="A61" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
-      <c r="A64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <f>BDP("XOM US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2018")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29">
-      <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <f>BDP("XOM US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2019")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29">
-      <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <f>BDP("XOM US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2020")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29">
-      <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <f>BDP("XOM US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2021")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
-      <c r="A68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <f>BDP("XOM US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2022")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29">
-      <c r="A69" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <f>BDP("XOM US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2023")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29">
-      <c r="A70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <f>BDP("XOM US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2024")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29">
-      <c r="A71" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2018")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29">
-      <c r="A72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2019")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29">
-      <c r="A73" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AB73">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2020")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29">
-      <c r="A74" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
-        <v>0</v>
-      </c>
-      <c r="AC74">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2021")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29">
-      <c r="A75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2022")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29">
-      <c r="A76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2023")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29">
-      <c r="A77" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>

--- a/data/Bloomberg_template/GHG_emissions_x_0.xlsx
+++ b/data/Bloomberg_template/GHG_emissions_x_0.xlsx
@@ -16,25 +16,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
-    <t>XCOOQ US Equity 2018</t>
+    <t>XTGZ CH Equity 2018</t>
   </si>
   <si>
-    <t>XCOOQ US Equity 2019</t>
+    <t>XTGZ CH Equity 2019</t>
   </si>
   <si>
-    <t>XCOOQ US Equity 2020</t>
+    <t>XTGZ CH Equity 2020</t>
   </si>
   <si>
-    <t>XCOOQ US Equity 2021</t>
+    <t>XTGZ CH Equity 2021</t>
   </si>
   <si>
-    <t>XCOOQ US Equity 2022</t>
+    <t>XTGZ CH Equity 2022</t>
   </si>
   <si>
-    <t>XCOOQ US Equity 2023</t>
+    <t>XTGZ CH Equity 2023</t>
   </si>
   <si>
-    <t>XCOOQ US Equity 2024</t>
+    <t>XTGZ CH Equity 2024</t>
+  </si>
+  <si>
+    <t>XBPPGZ CH Equity 2018</t>
+  </si>
+  <si>
+    <t>XBPPGZ CH Equity 2019</t>
+  </si>
+  <si>
+    <t>XBPPGZ CH Equity 2020</t>
+  </si>
+  <si>
+    <t>XBPPGZ CH Equity 2021</t>
+  </si>
+  <si>
+    <t>XBPPGZ CH Equity 2022</t>
+  </si>
+  <si>
+    <t>XBPPGZ CH Equity 2023</t>
+  </si>
+  <si>
+    <t>XBPPGZ CH Equity 2024</t>
   </si>
   <si>
     <t>XOM US Equity 2018</t>
@@ -58,48 +79,6 @@
     <t>XOM US Equity 2024</t>
   </si>
   <si>
-    <t>XXYCPZ CH Equity 2018</t>
-  </si>
-  <si>
-    <t>XXYCPZ CH Equity 2019</t>
-  </si>
-  <si>
-    <t>XXYCPZ CH Equity 2020</t>
-  </si>
-  <si>
-    <t>XXYCPZ CH Equity 2021</t>
-  </si>
-  <si>
-    <t>XXYCPZ CH Equity 2022</t>
-  </si>
-  <si>
-    <t>XXYCPZ CH Equity 2023</t>
-  </si>
-  <si>
-    <t>XXYCPZ CH Equity 2024</t>
-  </si>
-  <si>
-    <t>XTGZ CH Equity 2018</t>
-  </si>
-  <si>
-    <t>XTGZ CH Equity 2019</t>
-  </si>
-  <si>
-    <t>XTGZ CH Equity 2020</t>
-  </si>
-  <si>
-    <t>XTGZ CH Equity 2021</t>
-  </si>
-  <si>
-    <t>XTGZ CH Equity 2022</t>
-  </si>
-  <si>
-    <t>XTGZ CH Equity 2023</t>
-  </si>
-  <si>
-    <t>XTGZ CH Equity 2024</t>
-  </si>
-  <si>
     <t>XLDLIZ CH Equity 2018</t>
   </si>
   <si>
@@ -121,27 +100,6 @@
     <t>XLDLIZ CH Equity 2024</t>
   </si>
   <si>
-    <t>XBPPGZ CH Equity 2018</t>
-  </si>
-  <si>
-    <t>XBPPGZ CH Equity 2019</t>
-  </si>
-  <si>
-    <t>XBPPGZ CH Equity 2020</t>
-  </si>
-  <si>
-    <t>XBPPGZ CH Equity 2021</t>
-  </si>
-  <si>
-    <t>XBPPGZ CH Equity 2022</t>
-  </si>
-  <si>
-    <t>XBPPGZ CH Equity 2023</t>
-  </si>
-  <si>
-    <t>XBPPGZ CH Equity 2024</t>
-  </si>
-  <si>
     <t>XEL US Equity 2018</t>
   </si>
   <si>
@@ -161,6 +119,48 @@
   </si>
   <si>
     <t>XEL US Equity 2024</t>
+  </si>
+  <si>
+    <t>XCOOQ US Equity 2018</t>
+  </si>
+  <si>
+    <t>XCOOQ US Equity 2019</t>
+  </si>
+  <si>
+    <t>XCOOQ US Equity 2020</t>
+  </si>
+  <si>
+    <t>XCOOQ US Equity 2021</t>
+  </si>
+  <si>
+    <t>XCOOQ US Equity 2022</t>
+  </si>
+  <si>
+    <t>XCOOQ US Equity 2023</t>
+  </si>
+  <si>
+    <t>XCOOQ US Equity 2024</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2018</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2019</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2020</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2021</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2022</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2023</t>
+  </si>
+  <si>
+    <t>XXYCPZ CH Equity 2024</t>
   </si>
 </sst>
 </file>
@@ -503,115 +503,115 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C1">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D1">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T1">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U1">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V1">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W1">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X1">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y1">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z1">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA1">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB1">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC1">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -620,115 +620,115 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -737,115 +737,115 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -854,115 +854,115 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -971,115 +971,115 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -1088,115 +1088,115 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -1205,115 +1205,115 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>BDP("XCOOQ US Equity", "NAME")</f>
+        <f>BDP("XTGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -1322,115 +1322,115 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>BDP("XOM US Equity", "NAME")</f>
+        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -1439,115 +1439,115 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>BDP("XOM US Equity", "NAME")</f>
+        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -1556,115 +1556,115 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C10">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U10">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>BDP("XOM US Equity", "NAME")</f>
+        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -1673,115 +1673,115 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C11">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U11">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>BDP("XOM US Equity", "NAME")</f>
+        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -1790,115 +1790,115 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C12">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>BDP("XOM US Equity", "NAME")</f>
+        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -1907,115 +1907,115 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U13">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X13">
-        <f>BDP("XOM US Equity", "NAME")</f>
+        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -2024,115 +2024,115 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>BDP("XOM US Equity", "NAME")</f>
+        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f>BDH("XOM US Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -2141,115 +2141,115 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U15">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V15">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W15">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X15">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -2258,115 +2258,115 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T16">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U16">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V16">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W16">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X16">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA16">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB16">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC16">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -2375,115 +2375,115 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T17">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U17">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W17">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X17">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -2492,115 +2492,115 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C18">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D18">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U18">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V18">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W18">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X18">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA18">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB18">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -2609,115 +2609,115 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C19">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T19">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U19">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V19">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X19">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y19">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA19">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB19">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC19">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -2726,115 +2726,115 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C20">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D20">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T20">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U20">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V20">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W20">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X20">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y20">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z20">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -2843,115 +2843,115 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T21">
-        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U21">
-        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V21">
-        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W21">
-        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X21">
-        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
+        <f>BDP("XOM US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y21">
-        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z21">
-        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA21">
-        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB21">
-        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC21">
-        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XOM US Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -2960,115 +2960,115 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D22">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T22">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U22">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V22">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W22">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X22">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y22">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA22">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB22">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC22">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -3077,115 +3077,115 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U23">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V23">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X23">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y23">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA23">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB23">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -3194,115 +3194,115 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C24">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T24">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U24">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V24">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W24">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X24">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y24">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z24">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA24">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB24">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -3311,115 +3311,115 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C25">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D25">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T25">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U25">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V25">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W25">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X25">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z25">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA25">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB25">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -3428,115 +3428,115 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C26">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T26">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U26">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V26">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W26">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X26">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB26">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC26">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -3545,115 +3545,115 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C27">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D27">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T27">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X27">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y27">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA27">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB27">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -3662,115 +3662,115 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C28">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D28">
-        <f>BDH("XTGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T28">
-        <f>BDH("XTGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U28">
-        <f>BDH("XTGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V28">
-        <f>BDH("XTGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W28">
-        <f>BDH("XTGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X28">
-        <f>BDP("XTGZ CH Equity", "NAME")</f>
+        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f>BDH("XTGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z28">
-        <f>BDH("XTGZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA28">
-        <f>BDH("XTGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB28">
-        <f>BDH("XTGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f>BDH("XTGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -3779,115 +3779,115 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T29">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U29">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V29">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W29">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X29">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y29">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z29">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA29">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -3896,115 +3896,115 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C30">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T30">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U30">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V30">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W30">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X30">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y30">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z30">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA30">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB30">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC30">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -4013,115 +4013,115 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C31">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D31">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T31">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U31">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V31">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W31">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X31">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z31">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA31">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB31">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC31">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -4130,115 +4130,115 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C32">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D32">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T32">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U32">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V32">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W32">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X32">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y32">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z32">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA32">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB32">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC32">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -4247,115 +4247,115 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C33">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T33">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U33">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V33">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W33">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X33">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y33">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z33">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA33">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB33">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -4364,115 +4364,115 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C34">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T34">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U34">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V34">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W34">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X34">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y34">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z34">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA34">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB34">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC34">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -4481,115 +4481,115 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C35">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>BDH("XLDLIZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T35">
-        <f>BDH("XLDLIZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U35">
-        <f>BDH("XLDLIZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V35">
-        <f>BDH("XLDLIZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W35">
-        <f>BDH("XLDLIZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X35">
-        <f>BDP("XLDLIZ CH Equity", "NAME")</f>
+        <f>BDP("XEL US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y35">
-        <f>BDH("XLDLIZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z35">
-        <f>BDH("XLDLIZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA35">
-        <f>BDH("XLDLIZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB35">
-        <f>BDH("XLDLIZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC35">
-        <f>BDH("XLDLIZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -4598,115 +4598,115 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C36">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D36">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T36">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U36">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V36">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W36">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X36">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y36">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z36">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA36">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB36">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC36">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -4715,115 +4715,115 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C37">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D37">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T37">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U37">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V37">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W37">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X37">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y37">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z37">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA37">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -4832,115 +4832,115 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C38">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D38">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T38">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U38">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V38">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W38">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X38">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA38">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC38">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -4949,115 +4949,115 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C39">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D39">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T39">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U39">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V39">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W39">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X39">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y39">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z39">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA39">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB39">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC39">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -5066,115 +5066,115 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C40">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D40">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T40">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U40">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V40">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W40">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X40">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA40">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB40">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC40">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -5183,115 +5183,115 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C41">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D41">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T41">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U41">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V41">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W41">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X41">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y41">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z41">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA41">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB41">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC41">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -5300,115 +5300,115 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C42">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D42">
-        <f>BDH("XBPPGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T42">
-        <f>BDH("XBPPGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U42">
-        <f>BDH("XBPPGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V42">
-        <f>BDH("XBPPGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W42">
-        <f>BDH("XBPPGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X42">
-        <f>BDP("XBPPGZ CH Equity", "NAME")</f>
+        <f>BDP("XCOOQ US Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f>BDH("XBPPGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f>BDH("XBPPGZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA42">
-        <f>BDH("XBPPGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB42">
-        <f>BDH("XBPPGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC42">
-        <f>BDH("XBPPGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XCOOQ US Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -5417,115 +5417,115 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C43">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D43">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F43">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H43">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I43">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K43">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L43">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P43">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R43">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T43">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U43">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V43">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W43">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X43">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA43">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB43">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC43">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -5534,115 +5534,115 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C44">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D44">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H44">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K44">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L44">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M44">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N44">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O44">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P44">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R44">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T44">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U44">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V44">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W44">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA44">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -5651,115 +5651,115 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C45">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F45">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H45">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I45">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K45">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L45">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P45">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R45">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T45">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U45">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V45">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W45">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X45">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA45">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB45">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC45">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -5768,115 +5768,115 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C46">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D46">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E46">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F46">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H46">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I46">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K46">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P46">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R46">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S46">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T46">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U46">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V46">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W46">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X46">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y46">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA46">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB46">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC46">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -5885,115 +5885,115 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C47">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D47">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E47">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F47">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H47">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K47">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O47">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P47">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R47">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S47">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T47">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U47">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V47">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W47">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X47">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y47">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA47">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB47">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC47">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -6002,115 +6002,115 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C48">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D48">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E48">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F48">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H48">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I48">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K48">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L48">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O48">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P48">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R48">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S48">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T48">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U48">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V48">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W48">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X48">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA48">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB48">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC48">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -6119,115 +6119,115 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C49">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D49">
-        <f>BDH("XEL US Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E49">
-        <f>BDH("XEL US Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F49">
-        <f>BDH("XEL US Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G49">
-        <f>BDH("XEL US Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H49">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I49">
-        <f>BDH("XEL US Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f>BDH("XEL US Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K49">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f>BDH("XEL US Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f>BDH("XEL US Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O49">
-        <f>BDH("XEL US Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P49">
-        <f>BDH("XEL US Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f>BDH("XEL US Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R49">
-        <f>BDH("XEL US Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S49">
-        <f>BDH("XEL US Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T49">
-        <f>BDH("XEL US Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U49">
-        <f>BDH("XEL US Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V49">
-        <f>BDH("XEL US Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W49">
-        <f>BDH("XEL US Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X49">
-        <f>BDP("XEL US Equity", "NAME")</f>
+        <f>BDP("XXYCPZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f>BDH("XEL US Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z49">
-        <f>BDH("XEL US Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA49">
-        <f>BDH("XEL US Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB49">
-        <f>BDH("XEL US Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC49">
-        <f>BDH("XEL US Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("XXYCPZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
